--- a/biology/Botanique/Genista_linifolia/Genista_linifolia.xlsx
+++ b/biology/Botanique/Genista_linifolia/Genista_linifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genista linifolia, le Genêt à feuilles de lin[2], est une espèce d'arbrisseaux de la famille des Fabaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genista linifolia, le Genêt à feuilles de lin, est une espèce d'arbrisseaux de la famille des Fabaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genista linifolia est un arbrisseau aux tiges vertes velues et aux branches mesurant généralement de 20 à 50 cm, pouvant dépasser les 2 mètres de hauteur[3]. Ses feuilles sont constituées de folioles coriaces, vertes, en forme de lance et à revers laineux. Les fleurs apparaissent en inflorescences denses en grappes vers les extrémités des branches. Les fleurs sont jaune vif et ressemblent à des pois. Le fruit est une gousse de légumineuse velue de 1 à 4 cm de long contenant plusieurs graines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genista linifolia est un arbrisseau aux tiges vertes velues et aux branches mesurant généralement de 20 à 50 cm, pouvant dépasser les 2 mètres de hauteur. Ses feuilles sont constituées de folioles coriaces, vertes, en forme de lance et à revers laineux. Les fleurs apparaissent en inflorescences denses en grappes vers les extrémités des branches. Les fleurs sont jaune vif et ressemblent à des pois. Le fruit est une gousse de légumineuse velue de 1 à 4 cm de long contenant plusieurs graines.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genista linifolia est présent dans la péninsule Ibérique, dans le sud de la France[4], en Afrique du Nord et dans les îles Canaries.
-On le trouve sur d'autres continents dans des régions au climat méditerranéen similaire, comme la Californie[5], l'Australie et la Nouvelle-Zélande[1], où il est devenu une espèce envahissante dans ces régions.
-La fleur a pour parasite Arytinnis fortunata (sv) et Arytinnis romeira (sv). Le fruit a pour parasite Bruchidius lividimanus et Bruchidius villosus. La feuille a pour parasite Uromyces pisi-sativi. La tige a pour parasite Anthaxia guanche[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genista linifolia est présent dans la péninsule Ibérique, dans le sud de la France, en Afrique du Nord et dans les îles Canaries.
+On le trouve sur d'autres continents dans des régions au climat méditerranéen similaire, comme la Californie, l'Australie et la Nouvelle-Zélande, où il est devenu une espèce envahissante dans ces régions.
+La fleur a pour parasite Arytinnis fortunata (sv) et Arytinnis romeira (sv). Le fruit a pour parasite Bruchidius lividimanus et Bruchidius villosus. La feuille a pour parasite Uromyces pisi-sativi. La tige a pour parasite Anthaxia guanche.
 </t>
         </is>
       </c>
